--- a/BusyForcast/test_excel.xlsx
+++ b/BusyForcast/test_excel.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="2" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,6 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,16 +60,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -85,10 +86,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -123,7 +124,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -158,7 +159,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -252,21 +253,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -283,7 +284,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -335,23 +336,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>665</v>
       </c>
@@ -359,29 +360,4129 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>333</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>432</v>
       </c>
+      <c r="D3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="70" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="71" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="72" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="73" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="74" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="75" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="76" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="77" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="78" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="79" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="80" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="83" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="85" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="107" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="108" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="109" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>3.0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -433,6 +4534,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>